--- a/03-16-25 to 03-22-25 Milwaukee Schedule.xlsx
+++ b/03-16-25 to 03-22-25 Milwaukee Schedule.xlsx
@@ -1812,7 +1812,11 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Carlie / Trevor to meet at 5:00 am at Grafton Park n Ride</t>
+        </is>
+      </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
@@ -1876,21 +1880,13 @@
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>*Carlie - still need to head to Ryan Rd PNR too</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
@@ -1950,22 +1946,9 @@
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Camry</t>
-        </is>
-      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
@@ -2023,15 +2006,19 @@
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
@@ -2084,15 +2071,20 @@
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Camry</t>
+        </is>
+      </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -2133,12 +2125,12 @@
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -2186,20 +2178,15 @@
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
@@ -2248,12 +2235,12 @@
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -2297,15 +2284,20 @@
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
@@ -2346,12 +2338,12 @@
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Justin Learned</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -2399,12 +2391,12 @@
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -2448,12 +2440,12 @@
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -2510,12 +2502,12 @@
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
@@ -2557,8 +2549,16 @@
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
@@ -2628,8 +2628,16 @@
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
@@ -2689,13 +2697,21 @@
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>4:45 AM OFFICE MEET</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr"/>
+          <t>Trevor</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>w/ Carlie</t>
+        </is>
+      </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
@@ -2743,11 +2759,7 @@
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
@@ -2813,11 +2825,7 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
@@ -2880,7 +2888,7 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>FESTIVAL #2730, BARABOO - LIFO</t>
+          <t>4:45 AM OFFICE MEET</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -2937,7 +2945,7 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>615 LINN ST</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -2994,7 +3002,7 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/2AEpWZw6fMx</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -3053,7 +3061,11 @@
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>FESTIVAL #2730, BARABOO - LIFO</t>
+        </is>
+      </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
@@ -3109,21 +3121,13 @@
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>615 LINN ST</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
@@ -3174,14 +3178,10 @@
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>https://goo.gl/maps/2AEpWZw6fMx</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -3247,16 +3247,8 @@
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Leyna</t>
-        </is>
-      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
@@ -3302,18 +3294,17 @@
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Driver,
-Optima</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
@@ -3360,19 +3351,15 @@
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Aivy</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Lexi</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
@@ -3413,19 +3400,15 @@
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
@@ -3462,17 +3445,18 @@
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver,
+Optima</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
@@ -3527,12 +3511,12 @@
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -3592,12 +3576,12 @@
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Josie</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -3657,12 +3641,12 @@
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3716,9 +3700,21 @@
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
@@ -3773,9 +3769,21 @@
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Josie</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
@@ -3842,13 +3850,21 @@
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Office</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr"/>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
@@ -3900,11 +3916,7 @@
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
+      <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
@@ -4023,7 +4035,11 @@
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
@@ -4076,7 +4092,11 @@
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">

--- a/03-16-25 to 03-22-25 Milwaukee Schedule.xlsx
+++ b/03-16-25 to 03-22-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA83"/>
+  <dimension ref="A1:AA85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2426,7 +2426,11 @@
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Carlie / Trevor meet at Grafton Park n Ride 1st @ 4:45 am</t>
+        </is>
+      </c>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
@@ -2474,22 +2478,9 @@
       </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>@ Store,
-Equip</t>
-        </is>
-      </c>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr"/>
@@ -2513,7 +2504,11 @@
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Carlie / Trevor to meet at 5:30 am at Grafton Park n Ride</t>
+        </is>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
@@ -2530,15 +2525,20 @@
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr"/>
+          <t>Jeremiah</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>@ Store,
+Equip</t>
+        </is>
+      </c>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr"/>
@@ -2561,21 +2561,9 @@
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>Sante Fe available, Equip</t>
-        </is>
-      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
@@ -2604,18 +2592,17 @@
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>Driver,
-Sante Fe</t>
+          <t>Grafton 1st</t>
         </is>
       </c>
       <c r="X38" t="inlineStr"/>
@@ -2642,15 +2629,19 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Sante Fe available, Equip</t>
+        </is>
+      </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
@@ -2674,17 +2665,18 @@
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver,
+Sante Fe</t>
         </is>
       </c>
       <c r="X39" t="inlineStr"/>
@@ -2715,15 +2707,19 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>w/ Trevor</t>
+        </is>
+      </c>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
@@ -2735,17 +2731,17 @@
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>Josie</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>w/ Carlie</t>
         </is>
       </c>
       <c r="X40" t="inlineStr"/>
@@ -2764,19 +2760,15 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>Until 10:00</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
@@ -2801,12 +2793,12 @@
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="W41" t="inlineStr">
@@ -2830,15 +2822,19 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr"/>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Until 10:00</t>
+        </is>
+      </c>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
@@ -2862,12 +2858,12 @@
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
@@ -2895,12 +2891,12 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
@@ -2919,12 +2915,12 @@
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="W43" t="inlineStr">
@@ -2952,12 +2948,12 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
@@ -2976,12 +2972,12 @@
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
@@ -3009,12 +3005,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
@@ -3037,12 +3033,12 @@
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="W45" t="inlineStr">
@@ -3070,12 +3066,12 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
@@ -3098,12 +3094,12 @@
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="W46" t="inlineStr">
@@ -3131,12 +3127,12 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
@@ -3155,12 +3151,12 @@
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
@@ -3188,12 +3184,12 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
@@ -3224,12 +3220,12 @@
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>Terri</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
@@ -3251,8 +3247,16 @@
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
@@ -3279,9 +3283,21 @@
         </is>
       </c>
       <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr"/>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Nagui</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="inlineStr"/>
@@ -3308,9 +3324,21 @@
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Trevor</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>w/ Carlie</t>
+        </is>
+      </c>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
@@ -3336,9 +3364,21 @@
         </is>
       </c>
       <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr"/>
-      <c r="W50" t="inlineStr"/>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Terri</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr"/>
@@ -3362,11 +3402,7 @@
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
@@ -3382,11 +3418,7 @@
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr">
-        <is>
-          <t>4:45 AM OFFICE LEAVE TIME</t>
-        </is>
-      </c>
+      <c r="V51" t="inlineStr"/>
       <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
@@ -3411,11 +3443,7 @@
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
@@ -3427,11 +3455,7 @@
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="V52" t="inlineStr"/>
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
@@ -3463,7 +3487,7 @@
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
-          <t>FESTIVAL #2707, NEENAH - LIFO</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="K53" t="inlineStr"/>
@@ -3495,7 +3519,7 @@
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr">
         <is>
-          <t>DC5-ITEM  LEVEL</t>
+          <t>4:45 AM OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="W53" t="inlineStr"/>
@@ -3528,7 +3552,7 @@
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
-          <t>647 S GREEN BAY RD</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
@@ -3560,7 +3584,7 @@
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr">
         <is>
-          <t>DHILLON'S STATION TAYCHEEDAH, FOND DU LAC</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W54" t="inlineStr"/>
@@ -3593,7 +3617,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/RgXmUUZfEDQ2</t>
+          <t>FESTIVAL #2707, NEENAH - LIFO</t>
         </is>
       </c>
       <c r="K55" t="inlineStr"/>
@@ -3625,7 +3649,7 @@
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr">
         <is>
-          <t>N7593 TAYCHEEDAH WAY</t>
+          <t>DC5-ITEM  LEVEL</t>
         </is>
       </c>
       <c r="W55" t="inlineStr"/>
@@ -3656,7 +3680,11 @@
       </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>647 S GREEN BAY RD</t>
+        </is>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
@@ -3686,7 +3714,7 @@
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/AikGemvbip7Snoju7</t>
+          <t>DHILLON'S STATION TAYCHEEDAH, FOND DU LAC</t>
         </is>
       </c>
       <c r="W56" t="inlineStr"/>
@@ -3716,21 +3744,13 @@
         </is>
       </c>
       <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/RgXmUUZfEDQ2</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
@@ -3757,7 +3777,11 @@
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr"/>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>N7593 TAYCHEEDAH WAY</t>
+        </is>
+      </c>
       <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
@@ -3785,21 +3809,9 @@
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>Jerry S</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
@@ -3825,21 +3837,13 @@
       </c>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr">
         <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="W58" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>https://maps.app.goo.gl/AikGemvbip7Snoju7</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr"/>
@@ -3868,12 +3872,12 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Josie</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -3890,21 +3894,9 @@
       <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V59" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="W59" t="inlineStr">
-        <is>
-          <t>Optima</t>
-        </is>
-      </c>
+      <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr"/>
@@ -3921,12 +3913,12 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -3958,17 +3950,17 @@
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>Aivy</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="W60" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="X60" t="inlineStr"/>
@@ -3987,12 +3979,12 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -4021,9 +4013,21 @@
         </is>
       </c>
       <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr"/>
-      <c r="W61" t="inlineStr"/>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>Optima</t>
+        </is>
+      </c>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr"/>
@@ -4044,12 +4048,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -4078,9 +4082,21 @@
         </is>
       </c>
       <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr"/>
-      <c r="W62" t="inlineStr"/>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>Aivy</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr"/>
@@ -4101,12 +4117,12 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -4142,12 +4158,12 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -4183,12 +4199,12 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -4224,12 +4240,12 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -4265,12 +4281,12 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -4306,12 +4322,12 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Terri</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -4345,9 +4361,21 @@
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Taya</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr"/>
@@ -4374,9 +4402,21 @@
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Terri</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr"/>
@@ -4404,11 +4444,7 @@
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr"/>
@@ -4437,11 +4473,7 @@
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>DC5-ITEM LEVEL</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
@@ -4472,7 +4504,7 @@
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr">
         <is>
-          <t>NEW - AMAN'S BEER + WINE, MUKWONAGO</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="K73" t="inlineStr"/>
@@ -4505,7 +4537,7 @@
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr">
         <is>
-          <t>110 CHAPMAN FARM BLVD</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K74" t="inlineStr"/>
@@ -4538,7 +4570,7 @@
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/z31tcvQnoT3Tmp4T9</t>
+          <t>NEW - AMAN'S BEER + WINE, MUKWONAGO</t>
         </is>
       </c>
       <c r="K75" t="inlineStr"/>
@@ -4569,7 +4601,11 @@
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>110 CHAPMAN FARM BLVD</t>
+        </is>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
@@ -4597,21 +4633,13 @@
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>https://maps.app.goo.gl/z31tcvQnoT3Tmp4T9</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr"/>
@@ -4638,21 +4666,9 @@
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>White Camry</t>
-        </is>
-      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr"/>
@@ -4681,17 +4697,17 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Aivy</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="L79" t="inlineStr"/>
@@ -4722,17 +4738,17 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>White Camry</t>
         </is>
       </c>
       <c r="L80" t="inlineStr"/>
@@ -4763,12 +4779,12 @@
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -4804,12 +4820,12 @@
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Palmer</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -4845,12 +4861,12 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -4875,6 +4891,88 @@
       <c r="Z83" t="inlineStr"/>
       <c r="AA83" t="inlineStr"/>
     </row>
+    <row r="84">
+      <c r="A84" t="inlineStr"/>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Palmer</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr"/>
+      <c r="S84" t="inlineStr"/>
+      <c r="T84" t="inlineStr"/>
+      <c r="U84" t="inlineStr"/>
+      <c r="V84" t="inlineStr"/>
+      <c r="W84" t="inlineStr"/>
+      <c r="X84" t="inlineStr"/>
+      <c r="Y84" t="inlineStr"/>
+      <c r="Z84" t="inlineStr"/>
+      <c r="AA84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr"/>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr"/>
+      <c r="S85" t="inlineStr"/>
+      <c r="T85" t="inlineStr"/>
+      <c r="U85" t="inlineStr"/>
+      <c r="V85" t="inlineStr"/>
+      <c r="W85" t="inlineStr"/>
+      <c r="X85" t="inlineStr"/>
+      <c r="Y85" t="inlineStr"/>
+      <c r="Z85" t="inlineStr"/>
+      <c r="AA85" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/03-16-25 to 03-22-25 Milwaukee Schedule.xlsx
+++ b/03-16-25 to 03-22-25 Milwaukee Schedule.xlsx
@@ -1149,7 +1149,11 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>**If anyone is planning to drive to the store - please let Jake know**</t>
+        </is>
+      </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
@@ -1218,21 +1222,9 @@
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1302,17 +1294,17 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>After Aurora</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="P18" t="inlineStr"/>
@@ -1383,18 +1375,17 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>@ Store,
-w/ DJ</t>
+          <t>After Aurora</t>
         </is>
       </c>
       <c r="P19" t="inlineStr"/>
@@ -1470,17 +1461,18 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>After Aurora</t>
+          <t>@ Store,
+w/ DJ</t>
         </is>
       </c>
       <c r="P20" t="inlineStr"/>
@@ -1543,19 +1535,17 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Driver,
-Red Van,
-Rx</t>
+          <t>After Aurora</t>
         </is>
       </c>
       <c r="P21" t="inlineStr"/>
@@ -1618,15 +1608,21 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van,
+Rx</t>
+        </is>
+      </c>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
@@ -1687,20 +1683,15 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>@ Store,
-w/ DJ</t>
-        </is>
-      </c>
+          <t>Justin Learned</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
@@ -1762,19 +1753,18 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Driver,
-Sante Fe,
-Supv Rx</t>
+          <t>@ Store,
+w/ DJ</t>
         </is>
       </c>
       <c r="P24" t="inlineStr"/>
@@ -1837,15 +1827,21 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe,
+Supv Rx</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
@@ -1906,12 +1902,12 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
@@ -1969,12 +1965,12 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
@@ -2038,12 +2034,12 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="O28" t="inlineStr"/>
@@ -2092,12 +2088,12 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
@@ -2141,12 +2137,12 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t xml:space="preserve">14) </t>
+          <t>13)</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
@@ -2198,12 +2194,12 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t xml:space="preserve">14) </t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
@@ -2253,8 +2249,16 @@
       </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
@@ -2307,9 +2311,21 @@
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Trevor</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
@@ -2357,11 +2373,7 @@
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>6:30 AM MEET WATERTOWN PLANK</t>
-        </is>
-      </c>
+      <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
@@ -2410,11 +2422,7 @@
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
@@ -2465,7 +2473,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:30 AM MEET WATERTOWN PLANK</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2514,7 +2522,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1055 WEST BEND</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2568,7 +2576,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>205 VALLEY AVE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2646,7 +2654,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/sSXpDDtLr7Rq4FET8</t>
+          <t>AURORA OUTPATIENT RX #1055 WEST BEND</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2722,7 +2730,11 @@
       </c>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>205 VALLEY AVE</t>
+        </is>
+      </c>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
@@ -2770,22 +2782,13 @@
       </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>Driver,
-White Camry, Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/sSXpDDtLr7Rq4FET8</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr"/>
@@ -2836,16 +2839,8 @@
         </is>
       </c>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
@@ -2901,9 +2896,22 @@
       </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Driver,
+White Camry, Equip</t>
+        </is>
+      </c>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr">
@@ -2958,8 +2966,16 @@
       </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Cynthia</t>
+        </is>
+      </c>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
@@ -3016,11 +3032,7 @@
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>5:30 AM OFFICE LEAVE TIME</t>
-        </is>
-      </c>
+      <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
@@ -3077,11 +3089,7 @@
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
@@ -3140,7 +3148,7 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>5:30 AM OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
@@ -3197,7 +3205,7 @@
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
-          <t>*SALE INVENTORY</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -3262,7 +3270,7 @@
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t>BUTERA MARKET #589, PALATINE</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
@@ -3343,7 +3351,7 @@
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>2070 N RAND RD</t>
+          <t>*SALE INVENTORY</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
@@ -3408,7 +3416,7 @@
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/vpupTB9xixFKJbGe7</t>
+          <t>BUTERA MARKET #589, PALATINE</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
@@ -3447,7 +3455,11 @@
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>2070 N RAND RD</t>
+        </is>
+      </c>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
@@ -3492,21 +3504,13 @@
       </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/vpupTB9xixFKJbGe7</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
@@ -3557,21 +3561,9 @@
       </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>Optima</t>
-        </is>
-      </c>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
@@ -3624,17 +3616,17 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="P55" t="inlineStr"/>
@@ -3689,17 +3681,17 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Optima</t>
         </is>
       </c>
       <c r="P56" t="inlineStr"/>
@@ -3754,12 +3746,12 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -3815,12 +3807,12 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -3886,9 +3878,21 @@
         </is>
       </c>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr"/>
@@ -3927,9 +3931,21 @@
         </is>
       </c>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr">
         <is>

--- a/03-16-25 to 03-22-25 Milwaukee Schedule.xlsx
+++ b/03-16-25 to 03-22-25 Milwaukee Schedule.xlsx
@@ -2436,7 +2436,7 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>Carlie / Trevor meet at Grafton Park n Ride 1st @ 4:45 am</t>
+          <t>Kim / Trevor meet at Pig in Slinger</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -2605,12 +2605,13 @@
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>Grafton 1st</t>
+          <t>Driver,
+Sante Fe</t>
         </is>
       </c>
       <c r="X38" t="inlineStr"/>
@@ -2678,15 +2679,10 @@
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe</t>
-        </is>
-      </c>
+          <t>Trevor</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr"/>
@@ -2748,12 +2744,12 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>w/ Carlie</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X40" t="inlineStr"/>
@@ -2801,7 +2797,7 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="W41" t="inlineStr">
@@ -2858,7 +2854,7 @@
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>Josie</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
@@ -2928,7 +2924,7 @@
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="W43" t="inlineStr">
@@ -2993,7 +2989,7 @@
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
@@ -3050,7 +3046,7 @@
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="W45" t="inlineStr">
@@ -3107,7 +3103,7 @@
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="W46" t="inlineStr">
@@ -3164,7 +3160,7 @@
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
@@ -3233,7 +3229,7 @@
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
@@ -3280,16 +3276,8 @@
           <t>2)</t>
         </is>
       </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
@@ -3298,7 +3286,7 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Terri</t>
         </is>
       </c>
       <c r="W49" t="inlineStr">
@@ -3372,21 +3360,9 @@
         </is>
       </c>
       <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="V50" t="inlineStr">
-        <is>
-          <t>Terri</t>
-        </is>
-      </c>
-      <c r="W50" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr"/>
@@ -3467,7 +3443,11 @@
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr"/>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>4:45 AM OFFICE LEAVE TIME</t>
+        </is>
+      </c>
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
@@ -3523,7 +3503,7 @@
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr">
         <is>
-          <t>4:45 AM OFFICE LEAVE TIME</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W53" t="inlineStr"/>
@@ -3576,7 +3556,7 @@
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM  LEVEL</t>
         </is>
       </c>
       <c r="W54" t="inlineStr"/>
@@ -3641,7 +3621,7 @@
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr">
         <is>
-          <t>DC5-ITEM  LEVEL</t>
+          <t>DHILLON'S STATION TAYCHEEDAH, FOND DU LAC</t>
         </is>
       </c>
       <c r="W55" t="inlineStr"/>
@@ -3706,7 +3686,7 @@
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr">
         <is>
-          <t>DHILLON'S STATION TAYCHEEDAH, FOND DU LAC</t>
+          <t>N7593 TAYCHEEDAH WAY</t>
         </is>
       </c>
       <c r="W56" t="inlineStr"/>
@@ -3771,7 +3751,7 @@
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr">
         <is>
-          <t>N7593 TAYCHEEDAH WAY</t>
+          <t>https://maps.app.goo.gl/AikGemvbip7Snoju7</t>
         </is>
       </c>
       <c r="W57" t="inlineStr"/>
@@ -3830,11 +3810,7 @@
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/AikGemvbip7Snoju7</t>
-        </is>
-      </c>
+      <c r="V58" t="inlineStr"/>
       <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
@@ -3898,9 +3874,21 @@
       <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr"/>
-      <c r="V59" t="inlineStr"/>
-      <c r="W59" t="inlineStr"/>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr"/>
@@ -3966,17 +3954,17 @@
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="W60" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>Optima</t>
         </is>
       </c>
       <c r="X60" t="inlineStr"/>
@@ -4031,17 +4019,17 @@
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="W61" t="inlineStr">
         <is>
-          <t>Optima</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X61" t="inlineStr"/>
@@ -4098,21 +4086,9 @@
         </is>
       </c>
       <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="V62" t="inlineStr">
-        <is>
-          <t>Aivy</t>
-        </is>
-      </c>
-      <c r="W62" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U62" t="inlineStr"/>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr"/>

--- a/03-16-25 to 03-22-25 Milwaukee Schedule.xlsx
+++ b/03-16-25 to 03-22-25 Milwaukee Schedule.xlsx
@@ -2842,7 +2842,7 @@
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:00 AM OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="S42" t="inlineStr"/>
@@ -2912,7 +2912,7 @@
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S43" t="inlineStr"/>
@@ -2977,7 +2977,7 @@
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr">
         <is>
-          <t>DHILLON'S STATION HUSTIS</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S44" t="inlineStr"/>
@@ -3034,7 +3034,7 @@
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr">
         <is>
-          <t>326 W JUNEAU ST</t>
+          <t>DHILLON'S STATION WILD GOOSE, JUNEAU</t>
         </is>
       </c>
       <c r="S45" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/2MvPuCPioicrHiKc6</t>
+          <t>W5948 WI-33</t>
         </is>
       </c>
       <c r="S46" t="inlineStr"/>
@@ -3150,7 +3150,11 @@
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/9TPQcR9AP9Sc5xxUA</t>
+        </is>
+      </c>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
@@ -3206,21 +3210,9 @@
       </c>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
@@ -3273,11 +3265,20 @@
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr"/>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>@ Store,
+Optima, Equip</t>
+        </is>
+      </c>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
@@ -3346,12 +3347,12 @@
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Aivy</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
@@ -3397,9 +3398,21 @@
       </c>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr"/>
@@ -3493,11 +3506,7 @@
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>5:00 AM OFFICE LEAVE TIME</t>
-        </is>
-      </c>
+      <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
@@ -3546,11 +3555,7 @@
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
@@ -3611,11 +3616,7 @@
       </c>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>DC5-ITEM LEVEL</t>
-        </is>
-      </c>
+      <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
@@ -3676,11 +3677,7 @@
       </c>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>DHILLON'S STATION WILD GOOSE, JUNEAU</t>
-        </is>
-      </c>
+      <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
@@ -3741,11 +3738,7 @@
       </c>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>W5948 WI-33</t>
-        </is>
-      </c>
+      <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
@@ -3802,11 +3795,7 @@
       </c>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/9TPQcR9AP9Sc5xxUA</t>
-        </is>
-      </c>
+      <c r="R58" t="inlineStr"/>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
@@ -3935,22 +3924,9 @@
         </is>
       </c>
       <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>@ Store,
-Optima, Equip</t>
-        </is>
-      </c>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr">
         <is>
@@ -4001,21 +3977,9 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>Josie</t>
-        </is>
-      </c>
-      <c r="S61" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr">
         <is>
@@ -4070,21 +4034,9 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr"/>

--- a/03-16-25 to 03-22-25 Milwaukee Schedule.xlsx
+++ b/03-16-25 to 03-22-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA85"/>
+  <dimension ref="A1:AA75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1450,7 +1450,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1524,7 +1524,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1741,13 +1741,12 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L24" t="inlineStr"/>
@@ -1816,7 +1815,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1891,12 +1890,13 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="L26" t="inlineStr"/>
@@ -1953,13 +1953,12 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L27" t="inlineStr"/>
@@ -2023,7 +2022,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2082,9 +2081,22 @@
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>@ Store,
+Supv Rx</t>
+        </is>
+      </c>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
@@ -2131,9 +2143,21 @@
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
@@ -2185,11 +2209,7 @@
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
@@ -2242,11 +2262,7 @@
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>DC5-ITEM LEVEL</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
@@ -2306,7 +2322,7 @@
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>PICK #365, MILWAUKEE - MIDTOWN</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
@@ -2367,7 +2383,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>5700 WEST CAPITOL DR</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -2416,7 +2432,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/W4WAvaTk74U2</t>
+          <t>PICK #365, MILWAUKEE - MIDTOWN</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2465,7 +2481,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>SET UP ON REG #1</t>
+          <t>5700 WEST CAPITOL DR</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -2514,7 +2530,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Carlie / Trevor to meet at 5:30 am at Grafton Park n Ride</t>
+          <t>https://goo.gl/maps/W4WAvaTk74U2</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -2570,7 +2586,11 @@
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>SET UP ON REG #1</t>
+        </is>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
@@ -2636,21 +2656,13 @@
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>Sante Fe available, Equip</t>
-        </is>
-      </c>
+          <t>Carlie / Trevor to meet at 5:30 am at Grafton Park n Ride</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
@@ -2709,21 +2721,9 @@
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>w/ Trevor</t>
-        </is>
-      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
@@ -2768,15 +2768,19 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Sante Fe available, Equip</t>
+        </is>
+      </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
@@ -2821,17 +2825,17 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Until 10:00</t>
+          <t>w/ Trevor</t>
         </is>
       </c>
       <c r="L42" t="inlineStr"/>
@@ -2882,12 +2886,12 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
@@ -2952,12 +2956,12 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
@@ -3017,15 +3021,19 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr"/>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Until 10:00</t>
+        </is>
+      </c>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr"/>
@@ -3074,12 +3082,12 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
@@ -3131,12 +3139,12 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
@@ -3192,12 +3200,12 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
@@ -3245,12 +3253,12 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="K49" t="inlineStr"/>
@@ -3323,19 +3331,15 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>w/ Carlie</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
@@ -3386,8 +3390,16 @@
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
@@ -3439,8 +3451,16 @@
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
@@ -3489,13 +3509,21 @@
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr"/>
+          <t>Trevor</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>w/ Carlie</t>
+        </is>
+      </c>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
@@ -3543,11 +3571,7 @@
       </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
@@ -3592,11 +3616,7 @@
       </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>FESTIVAL #2707, NEENAH - LIFO</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
@@ -3655,7 +3675,7 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>647 S GREEN BAY RD</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
@@ -3716,7 +3736,7 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/RgXmUUZfEDQ2</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
@@ -3775,7 +3795,11 @@
       </c>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>FESTIVAL #2707, NEENAH - LIFO</t>
+        </is>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
@@ -3827,21 +3851,13 @@
         </is>
       </c>
       <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>647 S GREEN BAY RD</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
@@ -3892,21 +3908,13 @@
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Jerry S</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/RgXmUUZfEDQ2</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
@@ -3957,21 +3965,9 @@
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Josie</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
@@ -4016,12 +4012,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -4061,12 +4057,12 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -4102,12 +4098,12 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -4143,12 +4139,12 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -4184,12 +4180,12 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -4225,12 +4221,12 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -4266,12 +4262,12 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -4307,12 +4303,12 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -4348,12 +4344,12 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Terri</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -4387,9 +4383,21 @@
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Michelle</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr"/>
@@ -4416,9 +4424,21 @@
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Nagui</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr"/>
@@ -4445,13 +4465,21 @@
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr"/>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr"/>
@@ -4478,13 +4506,21 @@
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr"/>
+          <t>Taya</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr"/>
@@ -4511,13 +4547,21 @@
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>NEW - AMAN'S BEER + WINE, MUKWONAGO</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr"/>
+          <t>Terri</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr"/>
@@ -4535,388 +4579,6 @@
       <c r="Z75" t="inlineStr"/>
       <c r="AA75" t="inlineStr"/>
     </row>
-    <row r="76">
-      <c r="A76" t="inlineStr"/>
-      <c r="B76" t="inlineStr"/>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>110 CHAPMAN FARM BLVD</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="inlineStr"/>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="inlineStr"/>
-      <c r="T76" t="inlineStr"/>
-      <c r="U76" t="inlineStr"/>
-      <c r="V76" t="inlineStr"/>
-      <c r="W76" t="inlineStr"/>
-      <c r="X76" t="inlineStr"/>
-      <c r="Y76" t="inlineStr"/>
-      <c r="Z76" t="inlineStr"/>
-      <c r="AA76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr"/>
-      <c r="B77" t="inlineStr"/>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/z31tcvQnoT3Tmp4T9</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="inlineStr"/>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="inlineStr"/>
-      <c r="T77" t="inlineStr"/>
-      <c r="U77" t="inlineStr"/>
-      <c r="V77" t="inlineStr"/>
-      <c r="W77" t="inlineStr"/>
-      <c r="X77" t="inlineStr"/>
-      <c r="Y77" t="inlineStr"/>
-      <c r="Z77" t="inlineStr"/>
-      <c r="AA77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr"/>
-      <c r="B78" t="inlineStr"/>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="inlineStr"/>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="inlineStr"/>
-      <c r="T78" t="inlineStr"/>
-      <c r="U78" t="inlineStr"/>
-      <c r="V78" t="inlineStr"/>
-      <c r="W78" t="inlineStr"/>
-      <c r="X78" t="inlineStr"/>
-      <c r="Y78" t="inlineStr"/>
-      <c r="Z78" t="inlineStr"/>
-      <c r="AA78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr"/>
-      <c r="B79" t="inlineStr"/>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="inlineStr"/>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="inlineStr"/>
-      <c r="T79" t="inlineStr"/>
-      <c r="U79" t="inlineStr"/>
-      <c r="V79" t="inlineStr"/>
-      <c r="W79" t="inlineStr"/>
-      <c r="X79" t="inlineStr"/>
-      <c r="Y79" t="inlineStr"/>
-      <c r="Z79" t="inlineStr"/>
-      <c r="AA79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr"/>
-      <c r="B80" t="inlineStr"/>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>White Camry</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="inlineStr"/>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="inlineStr"/>
-      <c r="T80" t="inlineStr"/>
-      <c r="U80" t="inlineStr"/>
-      <c r="V80" t="inlineStr"/>
-      <c r="W80" t="inlineStr"/>
-      <c r="X80" t="inlineStr"/>
-      <c r="Y80" t="inlineStr"/>
-      <c r="Z80" t="inlineStr"/>
-      <c r="AA80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr"/>
-      <c r="B81" t="inlineStr"/>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>Aivy</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="inlineStr"/>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="inlineStr"/>
-      <c r="T81" t="inlineStr"/>
-      <c r="U81" t="inlineStr"/>
-      <c r="V81" t="inlineStr"/>
-      <c r="W81" t="inlineStr"/>
-      <c r="X81" t="inlineStr"/>
-      <c r="Y81" t="inlineStr"/>
-      <c r="Z81" t="inlineStr"/>
-      <c r="AA81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr"/>
-      <c r="B82" t="inlineStr"/>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="inlineStr"/>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="inlineStr"/>
-      <c r="T82" t="inlineStr"/>
-      <c r="U82" t="inlineStr"/>
-      <c r="V82" t="inlineStr"/>
-      <c r="W82" t="inlineStr"/>
-      <c r="X82" t="inlineStr"/>
-      <c r="Y82" t="inlineStr"/>
-      <c r="Z82" t="inlineStr"/>
-      <c r="AA82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr"/>
-      <c r="B83" t="inlineStr"/>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="inlineStr"/>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="inlineStr"/>
-      <c r="T83" t="inlineStr"/>
-      <c r="U83" t="inlineStr"/>
-      <c r="V83" t="inlineStr"/>
-      <c r="W83" t="inlineStr"/>
-      <c r="X83" t="inlineStr"/>
-      <c r="Y83" t="inlineStr"/>
-      <c r="Z83" t="inlineStr"/>
-      <c r="AA83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr"/>
-      <c r="B84" t="inlineStr"/>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>Palmer</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="inlineStr"/>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="inlineStr"/>
-      <c r="T84" t="inlineStr"/>
-      <c r="U84" t="inlineStr"/>
-      <c r="V84" t="inlineStr"/>
-      <c r="W84" t="inlineStr"/>
-      <c r="X84" t="inlineStr"/>
-      <c r="Y84" t="inlineStr"/>
-      <c r="Z84" t="inlineStr"/>
-      <c r="AA84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr"/>
-      <c r="B85" t="inlineStr"/>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="inlineStr"/>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="inlineStr"/>
-      <c r="T85" t="inlineStr"/>
-      <c r="U85" t="inlineStr"/>
-      <c r="V85" t="inlineStr"/>
-      <c r="W85" t="inlineStr"/>
-      <c r="X85" t="inlineStr"/>
-      <c r="Y85" t="inlineStr"/>
-      <c r="Z85" t="inlineStr"/>
-      <c r="AA85" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/03-16-25 to 03-22-25 Milwaukee Schedule.xlsx
+++ b/03-16-25 to 03-22-25 Milwaukee Schedule.xlsx
@@ -3147,7 +3147,11 @@
           <t>Jerry D</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Until 11:45</t>
+        </is>
+      </c>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">

--- a/03-16-25 to 03-22-25 Milwaukee Schedule.xlsx
+++ b/03-16-25 to 03-22-25 Milwaukee Schedule.xlsx
@@ -1206,9 +1206,21 @@
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1st Aurora</t>
+        </is>
+      </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
@@ -1350,11 +1362,7 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>5:45 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
-        </is>
-      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
@@ -1385,7 +1393,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>After Aurora</t>
+          <t>@ Store, After Aurora</t>
         </is>
       </c>
       <c r="P19" t="inlineStr"/>
@@ -1438,7 +1446,7 @@
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>5:45 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -1512,7 +1520,7 @@
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -1545,7 +1553,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>After Aurora</t>
+          <t>@ Store, After Aurora</t>
         </is>
       </c>
       <c r="P21" t="inlineStr"/>
@@ -1585,7 +1593,7 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>FESTIVAL #2705, KENOSHA - LIFO</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -1660,7 +1668,7 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>3207 80TH ST</t>
+          <t>FESTIVAL #2705, KENOSHA - LIFO</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -1729,7 +1737,7 @@
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/zvVRztkrfs42</t>
+          <t>3207 80TH ST</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1803,7 +1811,7 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Carlie / Trevor to meet at 5:00 am at Grafton Park n Ride</t>
+          <t>https://goo.gl/maps/zvVRztkrfs42</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1878,7 +1886,7 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>*Carlie - still need to head to Ryan Rd PNR too</t>
+          <t>Carlie / Trevor to meet at 5:00 am at Grafton Park n Ride</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -1943,7 +1951,11 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>*Carlie - still need to head to Ryan Rd PNR too</t>
+        </is>
+      </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
@@ -1999,21 +2011,9 @@
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
@@ -2066,18 +2066,17 @@
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Driver,
-Red Camry</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
@@ -2133,15 +2132,20 @@
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Camry</t>
+        </is>
+      </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
@@ -2169,7 +2173,11 @@
           <t>Sonia</t>
         </is>
       </c>
-      <c r="O30" t="inlineStr"/>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>@ Store, After Aurora</t>
+        </is>
+      </c>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -2198,15 +2206,20 @@
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr"/>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>@ Store,
+After Aurora</t>
+        </is>
+      </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -2251,12 +2264,12 @@
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -2304,18 +2317,18 @@
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Driver,
-Red Van</t>
+          <t>@ Store,
+After Aurora</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
@@ -2370,15 +2383,20 @@
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
@@ -2419,12 +2437,12 @@
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Justin Learned</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -2468,12 +2486,12 @@
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -2517,12 +2535,12 @@
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
@@ -2575,12 +2593,12 @@
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -2646,15 +2664,20 @@
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr"/>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>@ Store,
+After Aurora</t>
+        </is>
+      </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
@@ -2707,19 +2730,15 @@
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>w/ Carlie</t>
-        </is>
-      </c>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -2762,9 +2781,21 @@
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Trevor</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>w/ Carlie</t>
+        </is>
+      </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
@@ -2877,11 +2908,7 @@
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>4:45 AM OFFICE MEET</t>
-        </is>
-      </c>
+      <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
@@ -2949,7 +2976,7 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>4:45 AM OFFICE MEET</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -3014,7 +3041,7 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -3035,9 +3062,21 @@
         </is>
       </c>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>2nd Aurora</t>
+        </is>
+      </c>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr">
@@ -3075,7 +3114,7 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>FESTIVAL #2730, BARABOO - LIFO</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -3132,7 +3171,7 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>615 LINN ST</t>
+          <t>FESTIVAL #2730, BARABOO - LIFO</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -3154,11 +3193,7 @@
       </c>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>5:30 AM OFFICE LEAVE TIME</t>
-        </is>
-      </c>
+      <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
@@ -3197,7 +3232,7 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/2AEpWZw6fMx</t>
+          <t>615 LINN ST</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -3217,7 +3252,7 @@
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>5:30 AM OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -3252,7 +3287,11 @@
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/2AEpWZw6fMx</t>
+        </is>
+      </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
@@ -3270,7 +3309,7 @@
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
@@ -3317,21 +3356,9 @@
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
@@ -3348,7 +3375,7 @@
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>*SALE INVENTORY</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
@@ -3384,15 +3411,19 @@
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr"/>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
@@ -3409,7 +3440,7 @@
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
-          <t>BUTERA MARKET #589, PALATINE</t>
+          <t>*SALE INVENTORY</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
@@ -3445,12 +3476,12 @@
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
@@ -3470,7 +3501,7 @@
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>2070 N RAND RD</t>
+          <t>BUTERA MARKET #589, PALATINE</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
@@ -3498,20 +3529,15 @@
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima</t>
-        </is>
-      </c>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
@@ -3532,7 +3558,7 @@
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/vpupTB9xixFKJbGe7</t>
+          <t>2070 N RAND RD</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -3560,17 +3586,18 @@
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Aivy</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver,
+Optima</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
@@ -3579,7 +3606,11 @@
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/vpupTB9xixFKJbGe7</t>
+        </is>
+      </c>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
@@ -3605,12 +3636,12 @@
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -3623,21 +3654,9 @@
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr"/>
@@ -3662,12 +3681,12 @@
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3686,17 +3705,17 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Optima</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="P56" t="inlineStr"/>
@@ -3723,12 +3742,12 @@
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -3747,17 +3766,17 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Optima</t>
         </is>
       </c>
       <c r="P57" t="inlineStr"/>
@@ -3784,12 +3803,12 @@
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Josie</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -3808,12 +3827,12 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -3841,12 +3860,12 @@
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -3865,12 +3884,12 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -3908,9 +3927,21 @@
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
@@ -3922,12 +3953,12 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -3973,9 +4004,21 @@
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr"/>
@@ -4007,11 +4050,7 @@
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
@@ -4054,7 +4093,7 @@
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
@@ -4097,7 +4136,11 @@
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">

--- a/03-16-25 to 03-22-25 Milwaukee Schedule.xlsx
+++ b/03-16-25 to 03-22-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA75"/>
+  <dimension ref="A1:AA77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1041,7 +1041,7 @@
       <c r="G15" t="inlineStr">
         <is>
           <t>Driver,
-Sante Fe, Equip</t>
+Red Camry, Equip</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
@@ -1064,7 +1064,7 @@
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t>5:00 am meet for DJ / Greg / Katherine</t>
+          <t>5:00 am meet at Watertown Plank for DJ / Greg / Katherine</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
@@ -1179,10 +1179,14 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr"/>
+          <t>Brenda</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>3rd Scan, work w/ Lashaun</t>
+        </is>
+      </c>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr">
         <is>
@@ -1261,7 +1265,7 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="W17" t="inlineStr"/>
@@ -1339,7 +1343,7 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="W18" t="inlineStr"/>
@@ -1388,12 +1392,12 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Brenda</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>@ Store, After Aurora</t>
+          <t>2nd Scan, work w/ Monica</t>
         </is>
       </c>
       <c r="P19" t="inlineStr"/>
@@ -1421,7 +1425,7 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="W19" t="inlineStr"/>
@@ -1474,13 +1478,12 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>@ Store,
-w/ DJ</t>
+          <t>@ Store, After Aurora</t>
         </is>
       </c>
       <c r="P20" t="inlineStr"/>
@@ -1503,10 +1506,14 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr"/>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr"/>
@@ -1548,12 +1555,13 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>@ Store, After Aurora</t>
+          <t>@ Store,
+w/ DJ</t>
         </is>
       </c>
       <c r="P21" t="inlineStr"/>
@@ -1576,7 +1584,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="W21" t="inlineStr"/>
@@ -1621,14 +1629,12 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Driver,
-Red Van,
-Rx</t>
+          <t>@ Store, After Aurora</t>
         </is>
       </c>
       <c r="P22" t="inlineStr"/>
@@ -1651,7 +1657,7 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="W22" t="inlineStr"/>
@@ -1696,10 +1702,16 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van,
+Rx</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
@@ -1720,7 +1732,7 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="W23" t="inlineStr"/>
@@ -1765,15 +1777,10 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>@ Store,
-w/ DJ</t>
-        </is>
-      </c>
+          <t>Justin Learned</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
@@ -1794,7 +1801,7 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="W24" t="inlineStr"/>
@@ -1839,14 +1846,13 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Driver,
-Sante Fe,
-Supv Rx</t>
+          <t>@ Store,
+w/ DJ</t>
         </is>
       </c>
       <c r="P25" t="inlineStr"/>
@@ -1869,7 +1875,7 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W25" t="inlineStr"/>
@@ -1915,10 +1921,16 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe,
+Supv Rx</t>
+        </is>
+      </c>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr">
         <is>
@@ -1937,9 +1949,21 @@
         </is>
       </c>
       <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Sophia</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>2nd Scan, work w/ Lashaun</t>
+        </is>
+      </c>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr"/>
@@ -1981,7 +2005,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
@@ -1998,8 +2022,16 @@
       </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
@@ -2038,7 +2070,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="O28" t="inlineStr"/>
@@ -2048,11 +2080,7 @@
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>5:15 AM MEET AT SLINGER PIGGLY WIGGLY</t>
-        </is>
-      </c>
+      <c r="V28" t="inlineStr"/>
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
@@ -2104,21 +2132,21 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr"/>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Train Brenda</t>
+        </is>
+      </c>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>1100 E COMMERCE BLVD - SLINGER</t>
-        </is>
-      </c>
+      <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
@@ -2143,7 +2171,8 @@
       <c r="G30" t="inlineStr">
         <is>
           <t>Driver,
-Red Camry</t>
+Sante Fe,
+Train Sophia</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
@@ -2170,14 +2199,10 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>@ Store, After Aurora</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -2190,7 +2215,7 @@
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>5:15 AM MEET AT SLINGER PIGGLY WIGGLY</t>
         </is>
       </c>
       <c r="W30" t="inlineStr"/>
@@ -2232,10 +2257,14 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr"/>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>@ Store, After Aurora</t>
+        </is>
+      </c>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -2248,7 +2277,7 @@
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>1100 E COMMERCE BLVD - SLINGER</t>
         </is>
       </c>
       <c r="W31" t="inlineStr"/>
@@ -2285,7 +2314,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
@@ -2301,7 +2330,7 @@
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr">
         <is>
-          <t>FESTIVAL #2732, APPLETON - NORTHLAND - LIFO</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="W32" t="inlineStr"/>
@@ -2347,14 +2376,10 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
@@ -2367,7 +2392,7 @@
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
-          <t>1200 W NORTHLAND AVE</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
@@ -2406,9 +2431,21 @@
       </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Trevor</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
@@ -2421,7 +2458,7 @@
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/eRWs6b1N24m</t>
+          <t>FESTIVAL #2732, APPLETON - NORTHLAND - LIFO</t>
         </is>
       </c>
       <c r="W34" t="inlineStr"/>
@@ -2470,7 +2507,7 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>Kim / Trevor meet at Pig in Slinger</t>
+          <t>1200 W NORTHLAND AVE</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -2505,11 +2542,7 @@
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>6:30 AM MEET WATERTOWN PLANK</t>
-        </is>
-      </c>
+      <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
@@ -2521,7 +2554,11 @@
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/eRWs6b1N24m</t>
+        </is>
+      </c>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
@@ -2556,7 +2593,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>6:30 AM MEET WATERTOWN PLANK</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2565,22 +2602,13 @@
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>@ Store,
-Equip</t>
-        </is>
-      </c>
+          <t>Kim / Trevor meet at Pig in Slinger</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr"/>
@@ -2614,7 +2642,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2636,22 +2664,9 @@
         </is>
       </c>
       <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe</t>
-        </is>
-      </c>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr"/>
@@ -2690,7 +2705,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1055 WEST BEND</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2709,15 +2724,20 @@
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr"/>
+          <t>Jeremiah</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>@ Store,
+Equip</t>
+        </is>
+      </c>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr"/>
@@ -2735,10 +2755,14 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr"/>
+          <t>Sophia</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>1st Day, work w/ Carlie</t>
+        </is>
+      </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -2747,7 +2771,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>205 VALLEY AVE</t>
+          <t>AURORA OUTPATIENT RX #1055 WEST BEND</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -2758,17 +2782,18 @@
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver,
+Sante Fe</t>
         </is>
       </c>
       <c r="X40" t="inlineStr"/>
@@ -2788,14 +2813,10 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>w/ Carlie</t>
-        </is>
-      </c>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
@@ -2816,7 +2837,7 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/sSXpDDtLr7Rq4FET8</t>
+          <t>205 VALLEY AVE</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
@@ -2827,19 +2848,15 @@
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>Josie</t>
-        </is>
-      </c>
-      <c r="W41" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Trevor</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr"/>
@@ -2850,9 +2867,21 @@
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Trevor</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>w/ Carlie</t>
+        </is>
+      </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
@@ -2861,17 +2890,21 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Brenda</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>w/ Trevor</t>
+          <t>1st Day, work w/ Carlie</t>
         </is>
       </c>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/sSXpDDtLr7Rq4FET8</t>
+        </is>
+      </c>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
@@ -2884,12 +2917,12 @@
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
@@ -2918,27 +2951,19 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>w/ Trevor,
+Train Brenda</t>
+        </is>
+      </c>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>Driver,
-White Camry, Equip</t>
-        </is>
-      </c>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr">
@@ -2950,12 +2975,12 @@
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="W43" t="inlineStr">
@@ -2974,11 +2999,7 @@
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>4:45 AM OFFICE MEET</t>
-        </is>
-      </c>
+      <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
@@ -2988,22 +3009,27 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Driver,
+White Camry, Equip</t>
+        </is>
+      </c>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr">
@@ -3015,12 +3041,12 @@
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
@@ -3041,7 +3067,7 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>4:45 AM OFFICE MEET</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -3053,30 +3079,22 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>Until 10:00</t>
-        </is>
-      </c>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>2nd Aurora</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr">
@@ -3088,12 +3106,12 @@
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="W45" t="inlineStr">
@@ -3114,7 +3132,7 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -3126,14 +3144,30 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr"/>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Until 10:00</t>
+        </is>
+      </c>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>2nd Aurora</t>
+        </is>
+      </c>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr">
@@ -3145,12 +3179,12 @@
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="W46" t="inlineStr">
@@ -3171,7 +3205,7 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>FESTIVAL #2730, BARABOO - LIFO</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -3183,12 +3217,12 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Until 11:45</t>
+          <t>Train Sophia</t>
         </is>
       </c>
       <c r="L47" t="inlineStr"/>
@@ -3206,12 +3240,12 @@
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
@@ -3232,7 +3266,7 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>615 LINN ST</t>
+          <t>FESTIVAL #2730, BARABOO - LIFO</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -3244,17 +3278,17 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Until 11:45</t>
+        </is>
+      </c>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>5:30 AM OFFICE LEAVE TIME</t>
-        </is>
-      </c>
+      <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
@@ -3263,12 +3297,12 @@
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
@@ -3289,7 +3323,7 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/2AEpWZw6fMx</t>
+          <t>615 LINN ST</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -3301,7 +3335,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="K49" t="inlineStr"/>
@@ -3309,7 +3343,7 @@
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>5:30 AM OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
@@ -3333,12 +3367,12 @@
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>Terri</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="W49" t="inlineStr">
@@ -3357,7 +3391,11 @@
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/2AEpWZw6fMx</t>
+        </is>
+      </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
@@ -3367,7 +3405,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="K50" t="inlineStr"/>
@@ -3375,7 +3413,7 @@
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
@@ -3396,9 +3434,21 @@
         </is>
       </c>
       <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr"/>
-      <c r="W50" t="inlineStr"/>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Nagui</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr"/>
@@ -3409,21 +3459,9 @@
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
@@ -3432,7 +3470,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
@@ -3440,7 +3478,7 @@
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
-          <t>*SALE INVENTORY</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
@@ -3461,9 +3499,21 @@
         </is>
       </c>
       <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr"/>
-      <c r="W51" t="inlineStr"/>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>Terri</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr"/>
@@ -3476,15 +3526,19 @@
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr"/>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
@@ -3493,7 +3547,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
@@ -3501,7 +3555,7 @@
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>BUTERA MARKET #589, PALATINE</t>
+          <t>*SALE INVENTORY</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
@@ -3511,11 +3565,7 @@
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr">
-        <is>
-          <t>4:45 AM OFFICE LEAVE TIME</t>
-        </is>
-      </c>
+      <c r="V52" t="inlineStr"/>
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
@@ -3529,12 +3579,12 @@
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
@@ -3546,19 +3596,19 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Sophia</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>w/ Carlie</t>
+          <t>1st Scan, work w/ Ian</t>
         </is>
       </c>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>2070 N RAND RD</t>
+          <t>BUTERA MARKET #589, PALATINE</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -3568,11 +3618,7 @@
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="V53" t="inlineStr"/>
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
@@ -3586,29 +3632,32 @@
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima</t>
-        </is>
-      </c>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/vpupTB9xixFKJbGe7</t>
+          <t>2070 N RAND RD</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -3620,7 +3669,7 @@
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr">
         <is>
-          <t>DC5-ITEM  LEVEL</t>
+          <t>4:45 AM OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="W54" t="inlineStr"/>
@@ -3636,26 +3685,43 @@
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Aivy</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver,
+Optima</t>
         </is>
       </c>
       <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Trevor</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>w/ Carlie</t>
+        </is>
+      </c>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/vpupTB9xixFKJbGe7</t>
+        </is>
+      </c>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
@@ -3665,7 +3731,7 @@
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr">
         <is>
-          <t>DHILLON'S STATION TAYCHEEDAH, FOND DU LAC</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W55" t="inlineStr"/>
@@ -3681,12 +3747,12 @@
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3696,28 +3762,12 @@
       </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr"/>
@@ -3726,7 +3776,7 @@
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr">
         <is>
-          <t>N7593 TAYCHEEDAH WAY</t>
+          <t>DC5-ITEM  LEVEL</t>
         </is>
       </c>
       <c r="W56" t="inlineStr"/>
@@ -3742,12 +3792,12 @@
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -3757,26 +3807,22 @@
       </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Optima</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="P57" t="inlineStr"/>
@@ -3787,7 +3833,7 @@
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/AikGemvbip7Snoju7</t>
+          <t>DHILLON'S STATION TAYCHEEDAH, FOND DU LAC</t>
         </is>
       </c>
       <c r="W57" t="inlineStr"/>
@@ -3803,12 +3849,12 @@
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -3820,24 +3866,24 @@
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>FESTIVAL #2707, NEENAH - LIFO</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Optima</t>
         </is>
       </c>
       <c r="P58" t="inlineStr"/>
@@ -3846,7 +3892,11 @@
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr"/>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>N7593 TAYCHEEDAH WAY</t>
+        </is>
+      </c>
       <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
@@ -3860,12 +3910,12 @@
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Josie</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -3877,19 +3927,19 @@
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>647 S GREEN BAY RD</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -3902,21 +3952,13 @@
       <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr">
         <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="W59" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>https://maps.app.goo.gl/AikGemvbip7Snoju7</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr"/>
@@ -3929,12 +3971,12 @@
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -3946,19 +3988,19 @@
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/RgXmUUZfEDQ2</t>
+          <t>FESTIVAL #2707, NEENAH - LIFO</t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -3971,21 +4013,9 @@
       <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V60" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="W60" t="inlineStr">
-        <is>
-          <t>Optima</t>
-        </is>
-      </c>
+      <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr"/>
@@ -3996,22 +4026,38 @@
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>647 S GREEN BAY RD</t>
+        </is>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -4026,17 +4072,17 @@
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>Aivy</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="W61" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="X61" t="inlineStr"/>
@@ -4053,33 +4099,49 @@
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
+          <t>https://goo.gl/maps/RgXmUUZfEDQ2</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
         <is>
           <t>@ Store</t>
         </is>
       </c>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
-      <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr"/>
-      <c r="W62" t="inlineStr"/>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>Optima</t>
+        </is>
+      </c>
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr"/>
@@ -4091,28 +4153,12 @@
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>Aivy</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr"/>
@@ -4122,9 +4168,21 @@
       <c r="R63" t="inlineStr"/>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr"/>
-      <c r="W63" t="inlineStr"/>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>Aivy</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X63" t="inlineStr"/>
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr"/>
@@ -4138,19 +4196,19 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -4181,17 +4239,21 @@
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Josie</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -4227,12 +4289,12 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -4268,12 +4330,12 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -4309,12 +4371,12 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -4350,12 +4412,12 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -4391,12 +4453,12 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -4432,12 +4494,12 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -4473,12 +4535,12 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -4514,12 +4576,12 @@
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -4555,12 +4617,12 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -4596,12 +4658,12 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Terri</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -4626,6 +4688,88 @@
       <c r="Z75" t="inlineStr"/>
       <c r="AA75" t="inlineStr"/>
     </row>
+    <row r="76">
+      <c r="A76" t="inlineStr"/>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Taya</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr"/>
+      <c r="T76" t="inlineStr"/>
+      <c r="U76" t="inlineStr"/>
+      <c r="V76" t="inlineStr"/>
+      <c r="W76" t="inlineStr"/>
+      <c r="X76" t="inlineStr"/>
+      <c r="Y76" t="inlineStr"/>
+      <c r="Z76" t="inlineStr"/>
+      <c r="AA76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr"/>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Terri</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr"/>
+      <c r="T77" t="inlineStr"/>
+      <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr"/>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr"/>
+      <c r="Z77" t="inlineStr"/>
+      <c r="AA77" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/03-16-25 to 03-22-25 Milwaukee Schedule.xlsx
+++ b/03-16-25 to 03-22-25 Milwaukee Schedule.xlsx
@@ -546,24 +546,64 @@
           <t> </t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Bag 8, SB 11</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Bags 5-7</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Bags 1-4</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Bags 5-7</t>
+        </is>
+      </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Bags 1-3</t>
+        </is>
+      </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
@@ -579,20 +619,44 @@
           <t> </t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Bags 1-3</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian </t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Bag 8, SB 11</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Bag 1</t>
+        </is>
+      </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
@@ -624,8 +688,16 @@
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Bag 8</t>
+        </is>
+      </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>

--- a/03-16-25 to 03-22-25 Milwaukee Schedule.xlsx
+++ b/03-16-25 to 03-22-25 Milwaukee Schedule.xlsx
@@ -3183,7 +3183,7 @@
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="W45" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="W46" t="inlineStr">
@@ -3317,7 +3317,7 @@
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
@@ -3374,7 +3374,7 @@
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
@@ -3444,7 +3444,7 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="W49" t="inlineStr">
@@ -3513,7 +3513,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Terri</t>
         </is>
       </c>
       <c r="W50" t="inlineStr">
@@ -3571,21 +3571,9 @@
         </is>
       </c>
       <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="V51" t="inlineStr">
-        <is>
-          <t>Terri</t>
-        </is>
-      </c>
-      <c r="W51" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr"/>
@@ -3690,7 +3678,11 @@
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr"/>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>4:45 AM OFFICE LEAVE TIME</t>
+        </is>
+      </c>
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
@@ -3741,7 +3733,7 @@
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr">
         <is>
-          <t>4:45 AM OFFICE LEAVE TIME</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W54" t="inlineStr"/>
@@ -3803,7 +3795,7 @@
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM  LEVEL</t>
         </is>
       </c>
       <c r="W55" t="inlineStr"/>
@@ -3848,7 +3840,7 @@
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr">
         <is>
-          <t>DC5-ITEM  LEVEL</t>
+          <t>DHILLON'S STATION TAYCHEEDAH, FOND DU LAC</t>
         </is>
       </c>
       <c r="W56" t="inlineStr"/>
@@ -3905,7 +3897,7 @@
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr">
         <is>
-          <t>DHILLON'S STATION TAYCHEEDAH, FOND DU LAC</t>
+          <t>N7593 TAYCHEEDAH WAY</t>
         </is>
       </c>
       <c r="W57" t="inlineStr"/>
@@ -3966,7 +3958,7 @@
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr">
         <is>
-          <t>N7593 TAYCHEEDAH WAY</t>
+          <t>https://maps.app.goo.gl/AikGemvbip7Snoju7</t>
         </is>
       </c>
       <c r="W58" t="inlineStr"/>
@@ -4025,11 +4017,7 @@
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
-      <c r="V59" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/AikGemvbip7Snoju7</t>
-        </is>
-      </c>
+      <c r="V59" t="inlineStr"/>
       <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
@@ -4085,9 +4073,21 @@
       <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr"/>
-      <c r="W60" t="inlineStr"/>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr"/>
@@ -4144,17 +4144,17 @@
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="W61" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>Optima</t>
         </is>
       </c>
       <c r="X61" t="inlineStr"/>
@@ -4201,17 +4201,17 @@
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="W62" t="inlineStr">
         <is>
-          <t>Optima</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X62" t="inlineStr"/>
@@ -4240,21 +4240,9 @@
       <c r="R63" t="inlineStr"/>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="V63" t="inlineStr">
-        <is>
-          <t>Aivy</t>
-        </is>
-      </c>
-      <c r="W63" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U63" t="inlineStr"/>
+      <c r="V63" t="inlineStr"/>
+      <c r="W63" t="inlineStr"/>
       <c r="X63" t="inlineStr"/>
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr"/>

--- a/03-16-25 to 03-22-25 Milwaukee Schedule.xlsx
+++ b/03-16-25 to 03-22-25 Milwaukee Schedule.xlsx
@@ -1507,11 +1507,7 @@
           <t>5)</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>Monica</t>
-        </is>
-      </c>
+      <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="inlineStr"/>
     </row>
     <row r="20">

--- a/03-16-25 to 03-22-25 Milwaukee Schedule.xlsx
+++ b/03-16-25 to 03-22-25 Milwaukee Schedule.xlsx
@@ -1502,11 +1502,7 @@
       </c>
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
+      <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="inlineStr"/>
     </row>

--- a/03-16-25 to 03-22-25 Milwaukee Schedule.xlsx
+++ b/03-16-25 to 03-22-25 Milwaukee Schedule.xlsx
@@ -3505,12 +3505,12 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>Terri</t>
+          <t>Nikki</t>
         </is>
       </c>
       <c r="W50" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, work w/ Marcia</t>
         </is>
       </c>
       <c r="X50" t="inlineStr"/>
@@ -3563,9 +3563,21 @@
         </is>
       </c>
       <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr"/>
-      <c r="W51" t="inlineStr"/>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>Terri</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr"/>
@@ -3670,11 +3682,7 @@
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr">
-        <is>
-          <t>4:45 AM OFFICE LEAVE TIME</t>
-        </is>
-      </c>
+      <c r="V53" t="inlineStr"/>
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
@@ -3725,7 +3733,7 @@
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>4:45 AM OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="W54" t="inlineStr"/>
@@ -3787,7 +3795,7 @@
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr">
         <is>
-          <t>DC5-ITEM  LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W55" t="inlineStr"/>
@@ -3832,7 +3840,7 @@
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr">
         <is>
-          <t>DHILLON'S STATION TAYCHEEDAH, FOND DU LAC</t>
+          <t>DC5-ITEM  LEVEL</t>
         </is>
       </c>
       <c r="W56" t="inlineStr"/>
@@ -3889,7 +3897,7 @@
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr">
         <is>
-          <t>N7593 TAYCHEEDAH WAY</t>
+          <t>DHILLON'S STATION TAYCHEEDAH, FOND DU LAC</t>
         </is>
       </c>
       <c r="W57" t="inlineStr"/>
@@ -3950,7 +3958,7 @@
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/AikGemvbip7Snoju7</t>
+          <t>N7593 TAYCHEEDAH WAY</t>
         </is>
       </c>
       <c r="W58" t="inlineStr"/>
@@ -4009,7 +4017,11 @@
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
-      <c r="V59" t="inlineStr"/>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/AikGemvbip7Snoju7</t>
+        </is>
+      </c>
       <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
@@ -4065,21 +4077,9 @@
       <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V60" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="W60" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr"/>
@@ -4136,17 +4136,17 @@
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="W61" t="inlineStr">
         <is>
-          <t>Optima</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="X61" t="inlineStr"/>
@@ -4193,17 +4193,17 @@
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>Aivy</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="W62" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Optima</t>
         </is>
       </c>
       <c r="X62" t="inlineStr"/>
@@ -4232,9 +4232,21 @@
       <c r="R63" t="inlineStr"/>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr"/>
-      <c r="W63" t="inlineStr"/>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>Aivy</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X63" t="inlineStr"/>
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr"/>
